--- a/src/test/resources/Excel.xlsx
+++ b/src/test/resources/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="5070" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
